--- a/data/raw/All Treatments/combined_raw.xlsx
+++ b/data/raw/All Treatments/combined_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/raw-data/All Treatments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/data/raw/All Treatments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7F79A-811C-3549-817C-AA78E748B0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB96A0D8-4C6C-9C49-8DFF-B4492D6F283B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41340" yWindow="-26580" windowWidth="34560" windowHeight="20440" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
+    <workbookView xWindow="-10440" yWindow="-27520" windowWidth="34160" windowHeight="20040" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,11 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FB9F-C7C0-8845-8916-2E1AAB9BD4F0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,7 +652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -697,7 +696,7 @@
         <v>17.119999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -741,7 +740,7 @@
         <v>17.475000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -785,7 +784,7 @@
         <v>16.752499999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -829,7 +828,7 @@
         <v>16.145</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -873,7 +872,7 @@
         <v>17.047499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -917,7 +916,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -961,7 +960,7 @@
         <v>16.392500000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>16.517500000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1049,7 +1048,7 @@
         <v>17.337499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>16.794999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>17.8475</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>16.892500000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>17.692499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>17.21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>16.297499999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>18.105</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1401,7 +1400,7 @@
         <v>16.692499999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>16.734999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>17.310000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
@@ -1533,7 +1532,7 @@
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>19.122500000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>19.29</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>18.079999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>18.704999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>17.9375</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>18.942499999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>18.369999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>17.094999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>19.012499999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>30</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>19.022500000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>18.0975</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>18.079999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>34</v>
       </c>
@@ -2325,7 +2324,7 @@
         <v>18.052500000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>35</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>18.952500000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>36</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>18.532499999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>12</v>
       </c>
@@ -2457,7 +2456,7 @@
         <v>18.305</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>14</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>19.094999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>16</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>17.587500000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>18</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>17.649999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>20</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>17.990000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>22</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>18.3125</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>23</v>
       </c>
@@ -2721,7 +2720,7 @@
         <v>17.740000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>24</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>18.169999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>25</v>
       </c>
@@ -2809,7 +2808,7 @@
         <v>19.087499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>26</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>18.11</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>27</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>18.6175</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>28</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>17.655000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>29</v>
       </c>
@@ -2985,7 +2984,7 @@
         <v>17.8125</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>30</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>17.872499999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>31</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>17.732499999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>32</v>
       </c>
@@ -3117,7 +3116,7 @@
         <v>18.12</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>33</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>17.652499999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>34</v>
       </c>
@@ -3205,7 +3204,7 @@
         <v>17.892500000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>35</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>18.8125</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>36</v>
       </c>
@@ -3294,18 +3293,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N61" xr:uid="{8CD3FB9F-C7C0-8845-8916-2E1AAB9BD4F0}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="field O2 west"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="RIC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>